--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H2">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>1.770920264443555</v>
+        <v>0.3942774377131112</v>
       </c>
       <c r="R2">
-        <v>15.938282379992</v>
+        <v>3.548496939418</v>
       </c>
       <c r="S2">
-        <v>0.04733528249417715</v>
+        <v>0.01247139182151921</v>
       </c>
       <c r="T2">
-        <v>0.04733528249417714</v>
+        <v>0.01247139182151921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H3">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
-        <v>4.559966861283557</v>
+        <v>0.3617934106702223</v>
       </c>
       <c r="R3">
-        <v>41.03970175155201</v>
+        <v>3.256140696032001</v>
       </c>
       <c r="S3">
-        <v>0.121884267675239</v>
+        <v>0.01144388938175883</v>
       </c>
       <c r="T3">
-        <v>0.1218842676752391</v>
+        <v>0.01144388938175883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H4">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
-        <v>6.723993601219554</v>
+        <v>0.5334899687462222</v>
       </c>
       <c r="R4">
-        <v>60.515942410976</v>
+        <v>4.801409718716</v>
       </c>
       <c r="S4">
-        <v>0.1797269718988592</v>
+        <v>0.01687482416360171</v>
       </c>
       <c r="T4">
-        <v>0.1797269718988592</v>
+        <v>0.01687482416360171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>16.440185</v>
       </c>
       <c r="I5">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J5">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>2.900572893232777</v>
+        <v>8.139312737658891</v>
       </c>
       <c r="R5">
-        <v>26.105156039095</v>
+        <v>73.25381463893001</v>
       </c>
       <c r="S5">
-        <v>0.07752999389798468</v>
+        <v>0.2574546463982225</v>
       </c>
       <c r="T5">
-        <v>0.07752999389798468</v>
+        <v>0.2574546463982225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>16.440185</v>
       </c>
       <c r="I6">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J6">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>7.468724898257779</v>
@@ -818,10 +818,10 @@
         <v>67.21852408432001</v>
       </c>
       <c r="S6">
-        <v>0.1996330439199142</v>
+        <v>0.2362432787267034</v>
       </c>
       <c r="T6">
-        <v>0.1996330439199143</v>
+        <v>0.2362432787267034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>16.440185</v>
       </c>
       <c r="I7">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J7">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
         <v>11.01316302351778</v>
@@ -880,10 +880,10 @@
         <v>99.11846721165999</v>
       </c>
       <c r="S7">
-        <v>0.2943730405820628</v>
+        <v>0.348357420747208</v>
       </c>
       <c r="T7">
-        <v>0.2943730405820628</v>
+        <v>0.3483574207472081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H8">
         <v>2.287311</v>
       </c>
       <c r="I8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N8">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q8">
-        <v>0.4035546002063334</v>
+        <v>1.132416670328667</v>
       </c>
       <c r="R8">
-        <v>3.631991401857</v>
+        <v>10.191750032958</v>
       </c>
       <c r="S8">
-        <v>0.01078669174786009</v>
+        <v>0.03581947798688181</v>
       </c>
       <c r="T8">
-        <v>0.01078669174786009</v>
+        <v>0.03581947798688181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H9">
         <v>2.287311</v>
       </c>
       <c r="I9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q9">
-        <v>1.039118271221334</v>
+        <v>1.039118271221333</v>
       </c>
       <c r="R9">
-        <v>9.352064440992002</v>
+        <v>9.352064440992001</v>
       </c>
       <c r="S9">
-        <v>0.02777480042478251</v>
+        <v>0.03286835580668068</v>
       </c>
       <c r="T9">
-        <v>0.02777480042478251</v>
+        <v>0.03286835580668069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H10">
         <v>2.287311</v>
       </c>
       <c r="I10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.029036</v>
       </c>
       <c r="O10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q10">
         <v>1.532253373577333</v>
@@ -1066,10 +1066,10 @@
         <v>13.790280362196</v>
       </c>
       <c r="S10">
-        <v>0.04095590735912027</v>
+        <v>0.04846671496742385</v>
       </c>
       <c r="T10">
-        <v>0.04095590735912027</v>
+        <v>0.04846671496742386</v>
       </c>
     </row>
   </sheetData>
